--- a/output/devset/aa_qs.xlsx
+++ b/output/devset/aa_qs.xlsx
@@ -211,7 +211,9 @@
     <t>§ 23 h.</t>
   </si>
   <si>
-    <t>Hvad skal vedtægterne for et kapitalselskab skal indeholde oplysning om?</t>
+    <t xml:space="preserve">Hvad skal vedtægterne for et kapitalselskab indeholde oplysning om?
+Hvad skal vedtægterne for et kapitalselskab indeholde oplysning om?
+</t>
   </si>
   <si>
     <t>Kapitalselskabets navn og eventuelle binavne, Kapitalselskabets navn og eventuelle binavne, kapitalselskabets formål, selskabskapitalens størrelse og antallet af kapitalandele eller kapitalandelenes pålydende værdi, kapitalandelenes rettigheder, kapitalselskabets ledelsesorganer, herunder oplysning om den valgte ledelsesstruktur, jf. § 111, og i aktieselskaber oplysning om antallet eller mindste og højeste antal medlemmer af de forskellige ledelsesorganer og eventuelle suppleanter samt valgperioden for medlemmerne af det øverste ledelsesorgan, indkaldelse til generalforsamling og kapitalselskabets regnskabsår</t>
@@ -295,7 +297,7 @@
     <t>§ 88.</t>
   </si>
   <si>
-    <t>Hvem kan indkalde til ekstraordinær generalforsamling i hhv.  Anpartsselskaber og aktieselskaber?</t>
+    <t>Hvem kan indkalde til ekstraordinær generalforsamling i hhv. anpartsselskaber og aktieselskaber?</t>
   </si>
   <si>
     <t>Det centrale ledelsesorgan, tilsynsrådet eller den generalforsamlingsvalgte revisor. I anpartsselskaber kan enhver anpartshaver forlange, at der afholdes en ekstraordinær generalforsamling. I aktieselskaber kan aktionærer, der ejer 5 pct. af selskabets kapital eller den mindre brøkdel, som vedtægterne måtte bestemme, eller som er tillagt ret hertil i vedtægterne, skriftligt forlange, at der afholdes en ekstraordinær generalforsamling.</t>
